--- a/biology/Médecine/Immunofixation/Immunofixation.xlsx
+++ b/biology/Médecine/Immunofixation/Immunofixation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immunofixation est une technique immunologique permettant de mettre en évidence et de préciser le typage d'une immunoglobuline monoclonale dans le sérum ou les urines d'un patient. Elle tend actuellement à supplanter l'immunoélectrophorèse. Elle présente un grand intérêt pour le diagnostic et le bilan de certaines hémopathies comme le myélome.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une méthode de détection par précipitation, c’est-à-dire que lorsque l'on met en contact l'immunoglobuline soluble avec l'anticorps correspondant, il se produit un phénomène de précipitation, visible à l'œil nu ou avec un appareil.
 L'immunofixation permet d'identifier des immunoglobulines monoclonales dans un mélange, en fonction de leur mobilité électrophorétique. Pour permettre cette identification, on utilise des anticorps spécifiques à ces immunoglobulines.
@@ -544,7 +558,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle consiste à déposer du sérum (ou de l'urine qui aura au préalable été concentrée) sur un gel. Après application d'un courant électrique qui permet la séparation des protéines en fonction de leur taille, des anticorps spécifiques de chaque type d'immunoglobuline sont déposés sur le gel. Il apparaît ainsi des bandes plus ou moins étroites sur le gel, au niveau où se situent les différentes immunoglobulines.
 L’immunofixation, comme l'immunoélectrophorèse, se déroule en deux étapes :
@@ -577,7 +593,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’immunofixation tend à supplanter l’immunoélectrophorèse car elle a l'avantage d'être :
 plus rapide (délai de réponse en moins de trois heures) ;
@@ -611,7 +629,9 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'immunofixation a comme principaux inconvénients :
 d'ignorer totalement l'exploration des protéines sériques autres que les immunoglobulines ;
